--- a/phealth/static/sponsor/files/template.xlsx
+++ b/phealth/static/sponsor/files/template.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t xml:space="preserve">Sr No.</t>
   </si>
@@ -49,6 +49,9 @@
     <t xml:space="preserve">+91 8172834753</t>
   </si>
   <si>
+    <t xml:space="preserve">1998-03-01</t>
+  </si>
+  <si>
     <t xml:space="preserve">bulkadded2@healthseeker.com</t>
   </si>
   <si>
@@ -56,6 +59,9 @@
   </si>
   <si>
     <t xml:space="preserve">+91 8172834752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1998-03-07</t>
   </si>
 </sst>
 </file>
@@ -64,7 +70,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="YYYY\-MM\-DD"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -147,11 +153,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -172,7 +178,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F149"/>
+  <dimension ref="A1:G149"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
@@ -184,7 +190,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="46.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="28.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="25.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="21.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="21.39"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="7" style="1" width="11.52"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
   </cols>
@@ -205,7 +211,7 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -213,7 +219,7 @@
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -225,29 +231,30 @@
       <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="3" t="n">
-        <v>35977</v>
-      </c>
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <f aca="false">IF(NOT(ISBLANK(B3)), A2 + 1, "")</f>
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="3" t="n">
-        <v>35979</v>
+        <v>12</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
